--- a/bd_modified.xlsx
+++ b/bd_modified.xlsx
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="G9" s="91" t="n">
-        <v>45591</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2044,9 +2044,7 @@
           <t>case</t>
         </is>
       </c>
-      <c r="E19" s="108" t="n">
-        <v>307754</v>
-      </c>
+      <c r="E19" s="108" t="inlineStr"/>
       <c r="F19" s="75" t="n"/>
       <c r="G19" s="75" t="n"/>
     </row>
